--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Bureau\R\banffIT\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC11D7A-D568-4D48-A4AC-949BAD27E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925ACEC-C9A6-4225-A838-8DA86B68AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>patient_id</t>
   </si>
   <si>
-    <t>centre</t>
-  </si>
-  <si>
     <t>biopsy_id</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>hist_tcmr</t>
+  </si>
+  <si>
+    <t>center</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,154 +545,154 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
